--- a/gym/eval_result/all.xlsx
+++ b/gym/eval_result/all.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,87 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>dt</t>
+          <t>qdt_hopper_medium_normal</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>dt</t>
+          <t>dt_hopper_medium_normal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>qdt_walker2d_medium_normal</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>dt_walker2d_medium_normal</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>qdt_halfcheetah_medium_normal</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>dt_halfcheetah_medium_normal</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>qdt_hopper_expert_normal</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>dt_hopper_expert_normal</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>qdt_walker2d_expert_normal</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dt_walker2d_expert_normal</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>qdt_walker2d_medium-replay_normal</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>dt_walker2d_medium-replay_normal</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>qdt_halfcheetah_medium-replay_normal</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>dt_halfcheetah_medium-replay_normal</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>dt_halfcheetah_expert_normal</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>dt_hopper_medium-replay_normal</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>qdt_hopper_medium_normal</t>
         </is>
       </c>
     </row>
@@ -440,10 +515,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2177.78323745322</v>
+        <v>1951.621323514415</v>
       </c>
       <c r="C2" t="n">
-        <v>3585.31627782076</v>
+        <v>1911.891605554337</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2972.025871055795</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3394.126806620015</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5021.336959579496</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5023.137912521608</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2653.760625194948</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2644.787410566138</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4967.095709492601</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4994.640266313871</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3043.913024995122</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3278.297675682621</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4000.683835644854</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4273.136670932149</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10781.91849004634</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2714.236978444112</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1751.357344508436</v>
       </c>
     </row>
     <row r="3">
@@ -453,10 +573,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261.0844657952856</v>
+        <v>171.6799194181257</v>
       </c>
       <c r="C3" t="n">
-        <v>74.62903287804936</v>
+        <v>183.268595672603</v>
+      </c>
+      <c r="D3" t="n">
+        <v>788.2069803980495</v>
+      </c>
+      <c r="E3" t="n">
+        <v>543.3179626976965</v>
+      </c>
+      <c r="F3" t="n">
+        <v>53.64607459337486</v>
+      </c>
+      <c r="G3" t="n">
+        <v>145.9053373935391</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1135.273854926251</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1292.950465555886</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.91998740220289</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.92350065461972</v>
+      </c>
+      <c r="L3" t="n">
+        <v>398.7039648469096</v>
+      </c>
+      <c r="M3" t="n">
+        <v>219.4136240747705</v>
+      </c>
+      <c r="N3" t="n">
+        <v>651.2623685767051</v>
+      </c>
+      <c r="O3" t="n">
+        <v>137.3477176380227</v>
+      </c>
+      <c r="P3" t="n">
+        <v>229.7618893540787</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>212.460997579581</v>
+      </c>
+      <c r="R3" t="n">
+        <v>188.2008677302729</v>
       </c>
     </row>
     <row r="4">
@@ -466,10 +631,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6728341242539312</v>
+        <v>0.6027997781297539</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7806756861500578</v>
+        <v>0.5904968895904181</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6470990506078441</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.739034000527087</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4278401801318665</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4279850327774156</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8202274874415347</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8174488002248591</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.081631718574826</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.087631012200002</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6627563054026359</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.713806040921443</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3457479156796311</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.3676615998497667</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.8911701512142154</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.8389548751878462</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.5407851065272461</v>
       </c>
     </row>
     <row r="5">
@@ -479,10 +689,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08084862533530041</v>
+        <v>0.05316319927480435</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01625444490189039</v>
+        <v>0.05675180245644659</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1716740314068019</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1183364107546221</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.00431481336711774</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01173532835144689</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3515541618698327</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4003810316650314</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.002814015072463766</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.003032583506767085</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.08683901397140453</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.04778899746798738</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.05238175569667056</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01104702948910341</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.01848000396960337</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.06579165688526337</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.05827915267403861</v>
       </c>
     </row>
   </sheetData>
